--- a/electron/backend/data/Testplan.xlsx
+++ b/electron/backend/data/Testplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2025\Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareDev\Trafikverket projekt\Trafikverket-GIT\electron\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC6CC72-F7B4-4A3B-BBCC-6DE7A0DE3CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C89F5-4265-4BE0-9445-11542E31320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3750" windowWidth="38880" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT 2025" sheetId="7" r:id="rId1"/>
@@ -373,7 +373,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -427,9 +427,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -807,9 +804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049BB223-A6B5-4D3E-ACA7-4531434772CF}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +938,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>B2&amp;" - "&amp;C2&amp;" - "&amp;F2&amp;""</f>
+        <f t="shared" ref="G2:G14" si="0">B2&amp;" - "&amp;C2&amp;" - "&amp;F2&amp;""</f>
         <v>LDN - 1 - A</v>
       </c>
       <c r="H2" s="2">
@@ -951,7 +948,7 @@
         <v>1542.5730000000001</v>
       </c>
       <c r="J2" s="2">
-        <f>I2-H2</f>
+        <f t="shared" ref="J2:J14" si="1">I2-H2</f>
         <v>124.69900000000007</v>
       </c>
       <c r="K2" s="3"/>
@@ -968,7 +965,7 @@
         <v>45421</v>
       </c>
       <c r="P2" s="18">
-        <f>O2+365</f>
+        <f t="shared" ref="P2:P12" si="2">O2+365</f>
         <v>45786</v>
       </c>
       <c r="Q2" s="18">
@@ -980,20 +977,20 @@
       <c r="T2" s="18">
         <v>45798</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="18">
         <v>45798</v>
       </c>
       <c r="V2" s="18">
-        <f>P2-60</f>
+        <f t="shared" ref="V2:V14" si="3">P2-60</f>
         <v>45726</v>
       </c>
       <c r="W2" s="18">
-        <f>P2+60</f>
+        <f t="shared" ref="W2:W14" si="4">P2+60</f>
         <v>45846</v>
       </c>
       <c r="X2" s="4">
-        <f ca="1">TODAY()-W2</f>
-        <v>-36</v>
+        <f t="shared" ref="X2:X14" ca="1" si="5">TODAY()-W2</f>
+        <v>-34</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1016,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>B3&amp;" - "&amp;C3&amp;" - "&amp;F3&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 1 - A</v>
       </c>
       <c r="H3" s="2">
@@ -1026,7 +1023,7 @@
         <v>1542.5730000000001</v>
       </c>
       <c r="J3" s="2">
-        <f>I3-H3</f>
+        <f t="shared" si="1"/>
         <v>124.69900000000007</v>
       </c>
       <c r="K3" s="3"/>
@@ -1043,7 +1040,7 @@
         <v>45526</v>
       </c>
       <c r="P3" s="18">
-        <f>O3+365</f>
+        <f t="shared" si="2"/>
         <v>45891</v>
       </c>
       <c r="Q3" s="18">
@@ -1056,16 +1053,16 @@
         <v>23</v>
       </c>
       <c r="V3" s="18">
-        <f>P3-60</f>
+        <f t="shared" si="3"/>
         <v>45831</v>
       </c>
       <c r="W3" s="18">
-        <f>P3+60</f>
+        <f t="shared" si="4"/>
         <v>45951</v>
       </c>
       <c r="X3" s="4">
-        <f ca="1">TODAY()-W3</f>
-        <v>-141</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-139</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1088,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>B4&amp;" - "&amp;C4&amp;" - "&amp;F4&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 2 - A</v>
       </c>
       <c r="H4" s="2">
@@ -1098,7 +1095,7 @@
         <v>1417.874</v>
       </c>
       <c r="J4" s="2">
-        <f>I4-H4</f>
+        <f t="shared" si="1"/>
         <v>3.33400000000006</v>
       </c>
       <c r="K4" s="3"/>
@@ -1115,7 +1112,7 @@
         <v>45417</v>
       </c>
       <c r="P4" s="18">
-        <f>O4+365</f>
+        <f t="shared" si="2"/>
         <v>45782</v>
       </c>
       <c r="Q4" s="18">
@@ -1128,16 +1125,16 @@
         <v>45797</v>
       </c>
       <c r="V4" s="18">
-        <f>P4-60</f>
+        <f t="shared" si="3"/>
         <v>45722</v>
       </c>
       <c r="W4" s="18">
-        <f>P4+60</f>
+        <f t="shared" si="4"/>
         <v>45842</v>
       </c>
       <c r="X4" s="4">
         <f ca="1">TODAY()-W4</f>
-        <v>-32</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1160,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>B5&amp;" - "&amp;C5&amp;" - "&amp;F5&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 2 - A</v>
       </c>
       <c r="H5" s="2">
@@ -1170,7 +1167,7 @@
         <v>1417.874</v>
       </c>
       <c r="J5" s="2">
-        <f>I5-H5</f>
+        <f t="shared" si="1"/>
         <v>3.33400000000006</v>
       </c>
       <c r="K5" s="3"/>
@@ -1187,7 +1184,7 @@
         <v>45524</v>
       </c>
       <c r="P5" s="18">
-        <f>O5+365</f>
+        <f t="shared" si="2"/>
         <v>45889</v>
       </c>
       <c r="Q5" s="18">
@@ -1200,16 +1197,16 @@
         <v>23</v>
       </c>
       <c r="V5" s="18">
-        <f>P5-60</f>
+        <f t="shared" si="3"/>
         <v>45829</v>
       </c>
       <c r="W5" s="18">
-        <f>P5+60</f>
+        <f t="shared" si="4"/>
         <v>45949</v>
       </c>
       <c r="X5" s="4">
-        <f ca="1">TODAY()-W5</f>
-        <v>-139</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-137</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1232,7 +1229,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>B6&amp;" - "&amp;C6&amp;" - "&amp;F6&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 2 - A1</v>
       </c>
       <c r="H6" s="2">
@@ -1242,7 +1239,7 @@
         <v>1.339</v>
       </c>
       <c r="J6" s="2">
-        <f>I6-H6</f>
+        <f t="shared" si="1"/>
         <v>1.339</v>
       </c>
       <c r="K6" s="3"/>
@@ -1259,7 +1256,7 @@
         <v>45417</v>
       </c>
       <c r="P6" s="18">
-        <f>O6+365</f>
+        <f t="shared" si="2"/>
         <v>45782</v>
       </c>
       <c r="Q6" s="18">
@@ -1272,16 +1269,16 @@
         <v>45797</v>
       </c>
       <c r="V6" s="18">
-        <f>P6-60</f>
+        <f t="shared" si="3"/>
         <v>45722</v>
       </c>
       <c r="W6" s="18">
-        <f>P6+60</f>
+        <f t="shared" si="4"/>
         <v>45842</v>
       </c>
       <c r="X6" s="4">
-        <f ca="1">TODAY()-W6</f>
-        <v>-32</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1304,7 +1301,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>B7&amp;" - "&amp;C7&amp;" - "&amp;F7&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 2 - A1</v>
       </c>
       <c r="H7" s="2">
@@ -1314,7 +1311,7 @@
         <v>1.339</v>
       </c>
       <c r="J7" s="2">
-        <f>I7-H7</f>
+        <f t="shared" si="1"/>
         <v>1.339</v>
       </c>
       <c r="K7" s="3"/>
@@ -1331,7 +1328,7 @@
         <v>45524</v>
       </c>
       <c r="P7" s="18">
-        <f>O7+365</f>
+        <f t="shared" si="2"/>
         <v>45889</v>
       </c>
       <c r="Q7" s="18">
@@ -1344,16 +1341,16 @@
         <v>45898</v>
       </c>
       <c r="V7" s="18">
-        <f>P7-60</f>
+        <f t="shared" si="3"/>
         <v>45829</v>
       </c>
       <c r="W7" s="18">
-        <f>P7+60</f>
+        <f t="shared" si="4"/>
         <v>45949</v>
       </c>
       <c r="X7" s="4">
-        <f ca="1">TODAY()-W7</f>
-        <v>-139</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-137</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1376,7 +1373,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>B8&amp;" - "&amp;C8&amp;" - "&amp;F8&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 2 - A2</v>
       </c>
       <c r="H8" s="2">
@@ -1386,7 +1383,7 @@
         <v>1417.6469999999999</v>
       </c>
       <c r="J8" s="2">
-        <f>I8-H8</f>
+        <f t="shared" si="1"/>
         <v>3.27800000000002</v>
       </c>
       <c r="K8" s="3"/>
@@ -1403,7 +1400,7 @@
         <v>45417</v>
       </c>
       <c r="P8" s="18">
-        <f>O8+365</f>
+        <f t="shared" si="2"/>
         <v>45782</v>
       </c>
       <c r="Q8" s="18">
@@ -1416,16 +1413,16 @@
         <v>45797</v>
       </c>
       <c r="V8" s="18">
-        <f>P8-60</f>
+        <f t="shared" si="3"/>
         <v>45722</v>
       </c>
       <c r="W8" s="18">
-        <f>P8+60</f>
+        <f t="shared" si="4"/>
         <v>45842</v>
       </c>
       <c r="X8" s="4">
-        <f ca="1">TODAY()-W8</f>
-        <v>-32</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-30</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1448,7 +1445,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>B9&amp;" - "&amp;C9&amp;" - "&amp;F9&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 2 - A2</v>
       </c>
       <c r="H9" s="2">
@@ -1458,7 +1455,7 @@
         <v>1417.6469999999999</v>
       </c>
       <c r="J9" s="2">
-        <f>I9-H9</f>
+        <f t="shared" si="1"/>
         <v>3.27800000000002</v>
       </c>
       <c r="K9" s="3"/>
@@ -1475,7 +1472,7 @@
         <v>45524</v>
       </c>
       <c r="P9" s="18">
-        <f>O9+365</f>
+        <f t="shared" si="2"/>
         <v>45889</v>
       </c>
       <c r="Q9" s="18">
@@ -1488,16 +1485,16 @@
         <v>45898</v>
       </c>
       <c r="V9" s="18">
-        <f>P9-60</f>
+        <f t="shared" si="3"/>
         <v>45829</v>
       </c>
       <c r="W9" s="18">
-        <f>P9+60</f>
+        <f t="shared" si="4"/>
         <v>45949</v>
       </c>
       <c r="X9" s="4">
-        <f ca="1">TODAY()-W9</f>
-        <v>-139</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-137</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1520,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>B10&amp;" - "&amp;C10&amp;" - "&amp;F10&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 3 - A</v>
       </c>
       <c r="H10" s="2">
@@ -1530,7 +1527,7 @@
         <v>1414.54</v>
       </c>
       <c r="J10" s="2">
-        <f>I10-H10</f>
+        <f t="shared" si="1"/>
         <v>99.141000000000076</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1549,7 +1546,7 @@
         <v>45417</v>
       </c>
       <c r="P10" s="18">
-        <f>O10+365</f>
+        <f t="shared" si="2"/>
         <v>45782</v>
       </c>
       <c r="Q10" s="18">
@@ -1562,16 +1559,16 @@
         <v>45797</v>
       </c>
       <c r="V10" s="18">
-        <f>P10-60</f>
+        <f t="shared" si="3"/>
         <v>45722</v>
       </c>
       <c r="W10" s="18">
-        <f>P10+60</f>
+        <f t="shared" si="4"/>
         <v>45842</v>
       </c>
       <c r="X10" s="4">
-        <f ca="1">TODAY()-W10</f>
-        <v>-32</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-30</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>25</v>
@@ -1597,7 +1594,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>B11&amp;" - "&amp;C11&amp;" - "&amp;F11&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 3 - A</v>
       </c>
       <c r="H11" s="2">
@@ -1607,7 +1604,7 @@
         <v>1323.6030000000001</v>
       </c>
       <c r="J11" s="2">
-        <f>I11-H11</f>
+        <f t="shared" si="1"/>
         <v>0.73900000000003274</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1626,7 +1623,7 @@
         <v>45524</v>
       </c>
       <c r="P11" s="18">
-        <f>O11+365</f>
+        <f t="shared" si="2"/>
         <v>45889</v>
       </c>
       <c r="Q11" s="18">
@@ -1639,16 +1636,16 @@
         <v>45898</v>
       </c>
       <c r="V11" s="18">
-        <f>P11-60</f>
+        <f t="shared" si="3"/>
         <v>45829</v>
       </c>
       <c r="W11" s="18">
-        <f>P11+60</f>
+        <f t="shared" si="4"/>
         <v>45949</v>
       </c>
       <c r="X11" s="4">
-        <f ca="1">TODAY()-W11</f>
-        <v>-139</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-137</v>
       </c>
       <c r="Y11" s="5" t="s">
         <v>25</v>
@@ -1674,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>B12&amp;" - "&amp;C12&amp;" - "&amp;F12&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 3 - A</v>
       </c>
       <c r="H12" s="2">
@@ -1684,7 +1681,7 @@
         <v>1336.7080000000001</v>
       </c>
       <c r="J12" s="2">
-        <f>I12-H12</f>
+        <f t="shared" si="1"/>
         <v>0.94600000000014006</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1703,7 +1700,7 @@
         <v>45524</v>
       </c>
       <c r="P12" s="18">
-        <f>O12+365</f>
+        <f t="shared" si="2"/>
         <v>45889</v>
       </c>
       <c r="Q12" s="18">
@@ -1716,16 +1713,16 @@
         <v>45898</v>
       </c>
       <c r="V12" s="18">
-        <f>P12-60</f>
+        <f t="shared" si="3"/>
         <v>45829</v>
       </c>
       <c r="W12" s="18">
-        <f>P12+60</f>
+        <f t="shared" si="4"/>
         <v>45949</v>
       </c>
       <c r="X12" s="4">
-        <f ca="1">TODAY()-W12</f>
-        <v>-139</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-137</v>
       </c>
       <c r="Y12" s="5" t="s">
         <v>25</v>
@@ -1751,7 +1748,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>B13&amp;" - "&amp;C13&amp;" - "&amp;F13&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 3 - A1 (Rsi)</v>
       </c>
       <c r="H13" s="2">
@@ -1761,7 +1758,7 @@
         <v>1405.761</v>
       </c>
       <c r="J13" s="2">
-        <f>I13-H13</f>
+        <f t="shared" si="1"/>
         <v>1.1730000000000018</v>
       </c>
       <c r="K13" s="3"/>
@@ -1794,16 +1791,16 @@
         <v>45801</v>
       </c>
       <c r="V13" s="18">
-        <f>P13-60</f>
+        <f t="shared" si="3"/>
         <v>45722</v>
       </c>
       <c r="W13" s="18">
-        <f>P13+60</f>
+        <f t="shared" si="4"/>
         <v>45842</v>
       </c>
       <c r="X13" s="4">
-        <f ca="1">TODAY()-W13</f>
-        <v>-32</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-30</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -1826,7 +1823,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>B14&amp;" - "&amp;C14&amp;" - "&amp;F14&amp;""</f>
+        <f t="shared" si="0"/>
         <v>LDN - 3 - A2 (Rsi)</v>
       </c>
       <c r="H14" s="2">
@@ -1836,7 +1833,7 @@
         <v>1.5349999999999999</v>
       </c>
       <c r="J14" s="2">
-        <f>I14-H14</f>
+        <f t="shared" si="1"/>
         <v>1.5349999999999999</v>
       </c>
       <c r="K14" s="3"/>
@@ -1866,16 +1863,16 @@
         <v>45801</v>
       </c>
       <c r="V14" s="18">
-        <f>P14-60</f>
+        <f t="shared" si="3"/>
         <v>45722</v>
       </c>
       <c r="W14" s="18">
-        <f>P14+60</f>
+        <f t="shared" si="4"/>
         <v>45842</v>
       </c>
       <c r="X14" s="4">
-        <f ca="1">TODAY()-W14</f>
-        <v>-32</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
